--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183432.424628321</v>
+        <v>1180853.21141064</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673453</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>395.229541041092</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.97701743173069</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.27844537736985</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6013590718069</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>97.09338435254772</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>299.1171821406819</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.254648051730039</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226084</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>62.39747685266875</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>100.6164200284646</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>112.2164988572765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>60.86538463674695</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>160.5825824815091</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114117</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>307.0746427165797</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035351</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>91.0856631048516</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.07837965750926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>304.391515483392</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754663</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.37259901119207</v>
+        <v>111.3598553131476</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654791</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.58131130043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>72.80978492054801</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.32649042089703</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>73.78417491007373</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189153</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>26.13627195705837</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428263</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.75138076689305</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>131.437227901961</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.63623515384994</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.9838498346386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.235723162484</v>
+        <v>832.3959881583185</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.273206222072</v>
+        <v>463.4334712179067</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.273206222072</v>
+        <v>463.4334712179067</v>
       </c>
       <c r="E2" t="n">
-        <v>846.4849536238276</v>
+        <v>463.4334712179067</v>
       </c>
       <c r="F2" t="n">
-        <v>435.49904883422</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
-        <v>423.0871915664986</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H2" t="n">
-        <v>111.3726002033558</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974692</v>
+        <v>455.1003844723706</v>
       </c>
       <c r="L2" t="n">
-        <v>1249.621903517363</v>
+        <v>692.7231656905618</v>
       </c>
       <c r="M2" t="n">
-        <v>1545.692470074964</v>
+        <v>1333.746375310456</v>
       </c>
       <c r="N2" t="n">
-        <v>1851.167576310547</v>
+        <v>1802.132917462889</v>
       </c>
       <c r="O2" t="n">
-        <v>2126.28379562718</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2326.588122916281</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.974895202417</v>
+        <v>1609.135160198252</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.835563226605</v>
+        <v>1218.99582822244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>402.5242931591499</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>979.247108262404</v>
+        <v>794.780057302517</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882298</v>
+        <v>1058.719588798004</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>1590.326047362089</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.6588426383016</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C4" t="n">
-        <v>766.6588426383016</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D4" t="n">
-        <v>616.5422032259659</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E4" t="n">
-        <v>468.6291096435727</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F4" t="n">
-        <v>321.7391621456624</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4173897387863</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4173897387863</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>991.0700018628663</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383016</v>
+        <v>766.6588426383043</v>
       </c>
       <c r="U4" t="n">
-        <v>766.6588426383016</v>
+        <v>766.6588426383043</v>
       </c>
       <c r="V4" t="n">
-        <v>766.6588426383016</v>
+        <v>511.9743544324175</v>
       </c>
       <c r="W4" t="n">
-        <v>766.6588426383016</v>
+        <v>511.9743544324175</v>
       </c>
       <c r="X4" t="n">
-        <v>766.6588426383016</v>
+        <v>283.9848035344002</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.6588426383016</v>
+        <v>63.19222439087005</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.610655259717</v>
+        <v>1631.884892478582</v>
       </c>
       <c r="C5" t="n">
-        <v>946.6481383193056</v>
+        <v>1631.884892478582</v>
       </c>
       <c r="D5" t="n">
-        <v>946.6481383193056</v>
+        <v>1631.884892478582</v>
       </c>
       <c r="E5" t="n">
-        <v>560.8598857210613</v>
+        <v>1246.096639880337</v>
       </c>
       <c r="F5" t="n">
-        <v>149.8739809314538</v>
+        <v>835.1107350907298</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>419.4288932908618</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.349827299651</v>
+        <v>1631.884892478582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.210495323839</v>
+        <v>1631.884892478582</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128337</v>
+        <v>301.9467472258288</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N6" t="n">
-        <v>1731.417920441368</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>2066.346601156899</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2315.823329021918</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.79985532281972</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79985532281972</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1227.599429701828</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1226.332108437455</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>971.6476202315675</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>682.2304501946069</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2408992965895</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>233.4483201530594</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>502.377065168534</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>133.4145482281223</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>133.4145482281223</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>133.4145482281223</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>126.4690474789188</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>114.8276097194548</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>114.8276097194548</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,37 +4817,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560731</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560731</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.815585560731</v>
+        <v>1652.581995469547</v>
       </c>
       <c r="X8" t="n">
-        <v>2364.182838057231</v>
+        <v>1279.116237208468</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.043506081419</v>
+        <v>888.9769052326558</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
         <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1731.417920441367</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2066.346601156898</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2315.823329021917</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>632.1157700911893</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>463.1795871632825</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>313.0629477509467</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>165.1498541685536</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4993,19 +4993,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.865893164277</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1103.18140495839</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>813.7642349214291</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>813.7642349214291</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>813.7642349214291</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.316839436113</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.354322495702</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>371.004719437497</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469167</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420301</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878106</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176542</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687095</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856276</v>
+        <v>3535.048359856284</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882234</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455653</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971433</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604041</v>
+        <v>3573.097416088271</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260471</v>
+        <v>3242.0345287447</v>
       </c>
       <c r="W11" t="n">
-        <v>2728.056011476047</v>
+        <v>2889.265873474586</v>
       </c>
       <c r="X11" t="n">
-        <v>2728.056011476047</v>
+        <v>2515.800115213506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2337.916679500235</v>
+        <v>2125.660783237694</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376492</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649582</v>
+        <v>480.1171086843894</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908847</v>
+        <v>993.4308829282788</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279348</v>
+        <v>1534.739190279346</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>465.3198276129234</v>
+        <v>373.3141073049953</v>
       </c>
       <c r="C13" t="n">
-        <v>296.3836446850165</v>
+        <v>373.3141073049953</v>
       </c>
       <c r="D13" t="n">
-        <v>146.2670052726808</v>
+        <v>373.3141073049953</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469167</v>
+        <v>225.4010137226022</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600394</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457693</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888903</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542991</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906984</v>
+        <v>1968.108379906987</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.29432245703</v>
+        <v>1747.294322457033</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897319</v>
+        <v>1458.203615897321</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691432</v>
+        <v>1203.519127691435</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544709</v>
+        <v>914.1019576544738</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564535</v>
+        <v>686.1124067564565</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129234</v>
+        <v>465.3198276129264</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>241.498637552449</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0073801158078</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.758067211686</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.758067211686</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220728</v>
+        <v>494.0589900220735</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941659</v>
+        <v>494.0589900220734</v>
       </c>
       <c r="D16" t="n">
-        <v>175.00616768183</v>
+        <v>494.0589900220734</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608053</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608053</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608053</v>
@@ -5446,13 +5446,13 @@
         <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958426</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523125</v>
+        <v>675.7074548523132</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5504,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.754138832765</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244854</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,16 +6151,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>593.611586390002</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776662</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952731</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6919058973628</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279802</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.6725264685176</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406107</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282751</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458821</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>417.6289352913134</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>250.4328360061934</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583152</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377265</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442287</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987573</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,22 +6704,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706073</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427005</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7297566303648</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797182</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063198</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718103</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741044</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443772</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008471</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.721318527045</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,16 +7096,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279802</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2401.759668664206</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2401.759668664206</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469507</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>982.149234294967</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>813.2130513670601</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D40" t="n">
-        <v>663.0964119547243</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="E40" t="n">
-        <v>515.1833183723311</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>368.2933708744208</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.149234294967</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,34 +7412,34 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511933</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,10 +7573,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2410.966886455159</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2410.966886455159</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.3654214781</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.290194822298</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.605706616411</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.18853657945</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.198985681433</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.198985681433</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630042</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942342</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>164.5570059766147</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>162.7850322279302</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.1946181815976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>79.95524621405767</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>248.7601900310633</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-6.385284227404029e-14</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>256.7871481632765</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.3588180506119</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>173.7639243740396</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>130.6961128228677</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>222.1512591819715</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238052</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>42.16632600083329</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>88.74631707708569</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>79.35558298905991</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034047</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146352</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.29152613729099</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>65.06136363537711</v>
+        <v>35.07410733342152</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516644</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>134.6711151870885</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0033420516648</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>73.62417772602116</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1976478713718</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>66.51053793615016</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823028</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.8900140445862</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194124</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.62386594322864</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>24.63391537253467</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.08691039030782</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.73901155627176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.84813034729868</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998373.7531778438</v>
+        <v>998373.7531778435</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871530.3806685966</v>
+        <v>871530.3806685976</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948638.2273597975</v>
+        <v>948638.2273597976</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208686</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208685</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.2415876634</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
@@ -26338,19 +26338,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217535</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898936</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.5451569093</v>
+        <v>318590.5451569114</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051397</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557928</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987624</v>
+        <v>83206.75751987699</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848957</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224538</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6188.359574389008</v>
       </c>
       <c r="F4" t="n">
-        <v>6280.947910469699</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26451,13 +26451,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214695</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.8319155842</v>
+        <v>-716714.8319155856</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.8137953101</v>
+        <v>76786.81379531177</v>
       </c>
       <c r="D6" t="n">
-        <v>249551.1735852053</v>
+        <v>249551.1735852052</v>
       </c>
       <c r="E6" t="n">
-        <v>12934.61469421796</v>
+        <v>12724.65045037109</v>
       </c>
       <c r="F6" t="n">
-        <v>188596.4451624199</v>
+        <v>188550.5401668562</v>
       </c>
       <c r="G6" t="n">
-        <v>345532.0482305721</v>
+        <v>345497.3103051365</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407159</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661517</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="J6" t="n">
-        <v>187285.2676401034</v>
+        <v>187250.5297146678</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661515</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="M6" t="n">
-        <v>273492.5269462753</v>
+        <v>273457.7890208388</v>
       </c>
       <c r="N6" t="n">
-        <v>312916.8779076619</v>
+        <v>312882.1399822269</v>
       </c>
       <c r="O6" t="n">
-        <v>353675.9864889268</v>
+        <v>353641.248563491</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661513</v>
+        <v>356664.5465407157</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808646</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.7254341522352</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447096</v>
+        <v>272.4638768447113</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218313</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362733994</v>
+        <v>333.8901362734018</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173605</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362733994</v>
+        <v>333.8901362734018</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173605</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362733994</v>
+        <v>333.8901362734018</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173605</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11.64650470061946</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>35.26313012712134</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>168.5535348045674</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>14.17801742767952</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>314.4316390293216</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>1.669105107777852</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27822,19 +27822,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>284.9719511679756</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.4310422139826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>2.438088595010974</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>269.1146806500045</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.20454916565473</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28065,19 +28065,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.2722586870811</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.101901059590594e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.687130518097547e-12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,25 +31522,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31549,7 +31549,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31601,22 +31601,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31710,10 +31710,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485641</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726047</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216961</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857413</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898374</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294396</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615127</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789558</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596465</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202548</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256408</v>
+        <v>544.2170489310839</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784532</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626272</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431801</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205463</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071841</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691781</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509171</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263704</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050055</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570596</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929606</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282689</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>357.2897453669905</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>473.117719345892</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.0652961865703</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>202.6048343658536</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806367</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>536.976220771803</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>492.5324261689364</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510051</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.3885042803741</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>568.1170166222643</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>248.72579905263</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35346,10 +35346,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276242</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584686</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077528</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062432</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151085</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156558</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458958</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457666</v>
+        <v>405.6626691512097</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625137</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>122.1974508792939</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987356</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062161</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211626</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701815</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360909</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998332</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>214.6935009225461</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,10 +35978,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
